--- a/biology/Zoologie/Gephyromantis_schilfi/Gephyromantis_schilfi.xlsx
+++ b/biology/Zoologie/Gephyromantis_schilfi/Gephyromantis_schilfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis schilfi est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis schilfi est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre à environ 1 250 m d'altitude dans le parc national de Marojejy[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre à environ 1 250 m d'altitude dans le parc national de Marojejy,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 2 spécimens mâles observés lors de la description originale mesurent entre 27,1 mm et 29,0 mm de longueur standard et le spécimen femelle observé lors de la description originale mesure 34,5 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 spécimens mâles observés lors de la description originale mesurent entre 27,1 mm et 29,0 mm de longueur standard et le spécimen femelle observé lors de la description originale mesure 34,5 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est dédiée par Margot Schilf à son fils Wolfgang Schilf à l'occasion de ses 50 ans[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est dédiée par Margot Schilf à son fils Wolfgang Schilf à l'occasion de ses 50 ans.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw &amp; Vences, 2000 : A new species of Mantidactylus from northeastern Madagascar with resurrection of Mantidactylus blanci (Guibe, 1974). Spixiana, vol. 23, p. 71-83 (texte intégral).</t>
         </is>
